--- a/Análise e Extração Snowballing.xlsx
+++ b/Análise e Extração Snowballing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Seleção Final" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="506">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -178,7 +178,7 @@
 Introductory Programming Assignments</t>
   </si>
   <si>
-    <t xml:space="preserve">Aceito – Aprendizado de padrões de modificações de código-fonte</t>
+    <t xml:space="preserve">Rejeitado – Utiliza modificações porém para gerar soluções por agrupamento, muito específico.</t>
   </si>
   <si>
     <t xml:space="preserve">High-coverage hint generation for massive courses: Do automated hints help CS1 students?</t>
@@ -1373,6 +1373,66 @@
     <t xml:space="preserve">Pode-se concluir que em média os scripts sugeridos não são ótimos em 27% dos casos analisados.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kui Liu, Dongsun Kim, Anil Koyuncu, Li Li, Tegawendé F. Bissyandé, Yves Le Traon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O estudo investiga quais são os padrões de código recorrentes em defeitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diversas ferramentas propõem corrigir defeitos através da mutação de suas estrututuras usando derivações estocásticas, contudo é um processo caro. Um melhor cenário é utilizar as informações aplicadas pelos usuários na resolução desses defeitos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O objetivo consiste identificar as entidades de código mais recorrentes em defeitos e suas respectivas correções.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foram selecionados alguns repositórios relevantes, para cada um foram identificados os commits que apontavam defeitos e correções de defeitos, em seguida foi aplicada a diferenciação para aprender a correção, em cada defeito de cada commit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padrões de defeitos de código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foram analisados os repositórios, e em seguida, para cada questão de pesquisa buscou-se identificar características relevantes das categorias de entidades de código identificadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada uma das questões foi analisada, a partir disso foram obtidos dados quantitativos e qualitativos de modo a permitir avaliar possíveis características através de insights.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Declarações de entidades também podem ser defeituosas; - É possível minerar diversas correções aplicadas na realidade; - Aumentar o nível de granularidade pode aumentar a precisão na identificação; - Correções que contenham move actions necessitam de informação de contexto. - entre outros;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neste estudo foram obtidas diversas conclusões relevantes que podem auxiliar  futuros estudos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hao Zhong, Na Meng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O estudo investiga a contribuição que correções de defeitos passadas podem ter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diversos trabalhos tem apresentado técnicas automatizadas para correção de defeitos, mas muito tem sido explorado do histórico de versão do repositório</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O estudo objetiva investigar se é possível construir novas correções com base em antigas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para cada correção foi elaborada uma diferenciação de deltas, a partir da qual foi possível identificar o que era modificado de fato, como seu conteudo, estrutura, qual era  a correção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padrões de correção de defeitos passadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foram utilizados diversos projetos de código aberto relevantes em que cada correção foi analisada cada uma das características para responder as questões de pesquisa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em situações que se conhece os nomes ou se utiliza parcialmente a correção do passado, foi possível elaborar a nova correção em 2% e 3%, contudo quando se adiciona a estrutura sintática os percentuais vão para 41% e 29%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É possível identificar um grande potencial no uso de estruturas sintáticas para a correção de defeitos com base em modificações passadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como contribuição é possível derivar correções a partir de modificações passadas, adequar os repositórios e aprender correções de outros repositórios.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yoshiki Higo, Akio Ohtani, Shinpei Hayashi, Hideaki Hata, Kusumoto Shinji</t>
   </si>
   <si>
@@ -1398,18 +1458,124 @@
   </si>
   <si>
     <t xml:space="preserve">Em nível preliminar foi obtido que a reutilização de modificações compensa, principalmente quanto a modificações entre projetos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myoungkyu Song, Eli Tilevich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O estudo apresenta uma técnica para modificação de aplicações web com base em exemplos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em muitas situações aplicações web são desenvolvidas para  integrar código provido por terceiros, ou mesmo que se adaptam com o tempo, então como podemos expressar essas modificações que ocorrem com o tempo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O estudo apresenta uma técnica de adaptação de código web com base em exemplos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicialmente é preciso que o usuário forneça o exemplo de entrada e saída, o qual deve-se se assemelhar a alguma das opções do catálogo predefinido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificações em geral em aplicações web com JavaScript.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para avaliação foram selecionados 14 projetos web em que a técnica podia ser aplicada e foram avaliadas suas questões de pesquisa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para a maioria das aplicações selecionadas foi possível aplicar a técnica com a devida precisão desejada. Sobre desempenho foi realizada uma análise assintótica do algoritmo em que foi possível determinar uma tendência linear com a estrutura sintática resultante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essa abordagem demonstrou que é possível garantir algumas características necessárias para aplicações web como questão de segurança, compatibilidade e persistência dentro dos projetos analisados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md Rakibul Islam, Minhaz F. Zibran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O estudo analisa o comportamento de um conjunto de métricas de qualidade na comparação de clones que contém defeitos ou não.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muitos estudos que envolvem clones tem analisado seu impacto no software, suas consequências, e como lidar com estes, porém não foi feita uma análise métrica para obter características do comportamento desse tipo de elemento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O objetivo do estudo é identificar quais possíveis métricas podem identificar clones com defeitos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A partir da seleção do repositório, são identificados os clones com o auxílio de uma ferramenta, em seguida, foram catalogados os clones com e sem defeitos, em seguida, o conjunto de métricas foi aplicado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificações em geral que são clones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 29 métricas de qualidade foram aplicadas e avaliadas com testes de significância estatística nos dados coletados previamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A partir dos experimentos por classes de qualidade, foram obtidos os dados númericos a partir dos quais foram estabelecidas algumas conclusões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Clones com defeitos tem maior complexidade e menor manutenabilidade. - Em geral, clones tem maiores medidas de métricas de código e menor qualidade de documentação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foi possível concluir que algumas métricas de qualidade são bons indicadores para determinar a identificação de defeitos.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Phitchaya Mangpo Phothilimthana, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sumukh Sridhara</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">O estudo está relacionado a sugestão de dicas para a correção de exercícios em cursos introdutórios de programação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O auxílio para alunos de cursos introdutórios podem ser feitos de diversas formas, contudo com o crescimento do curso se torna difícil, nesta situação a sugestão de dicas pode auxiliar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O objetivo é apresentar uma estratégia de sugestão de dicas com base em mutantes de erros de estudantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A abordagem consiste em avaliar possíveis casos de erros sintáticos, semânticos e outros casos e prover a mensagem adequada para cada situação, de modo a facilitar o aprendizado do aluno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erros em exercícios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O estudo foi aplicado em um curso com milhares de estudantes de programação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os resultados mostraram que houve uma queda no número de tentativas no curso que utilizou o sistema de dicas. E também uma pequena minoria utilizou a ferramenta de forma a forçar o resultado, ou seja, a maioria aprendeu com as dicas providas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como resultados gerais foi avaliado como um misto de boas e más avaliações, considerando que foi possível resolver os exercícios mais rapidamente, contudo em algumas situações os estudantes já tinham considerado o que a dica falava.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como contribuição foram identificados alguns pontos de melhorias, como dicas que os estudantes não compreendiam, mais opções de dicas pois começava a repetir e basear a dica em respostas de outros estudantes e não a do professor.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="[$-416]D/M/YYYY"/>
+    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="168" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1488,6 +1654,12 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1555,7 +1727,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1592,12 +1764,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1612,8 +1780,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1630,6 +1798,22 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1727,8 +1911,8 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1872,13 +2056,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="3" t="n">
         <v>159</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1993,13 +2177,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2014,25 +2198,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+    <row r="26" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="n">
         <v>249</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="3" t="n">
         <v>263</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2092,13 +2276,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+      <c r="A33" s="3" t="n">
         <v>333</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2151,17 +2335,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.05"/>
@@ -2178,7 +2362,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2222,1129 +2406,1258 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="n">
         <v>89</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="n">
+      <c r="C2" s="10" t="n">
         <f aca="false">SUM(D2:N2)</f>
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="12" t="n">
+      <c r="D2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="13" t="n">
+      <c r="M2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="12" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+    <row r="3" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
         <v>102</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="10" t="n">
         <f aca="false">SUM(D3:N3)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="M3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
         <v>106</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="10" t="n">
         <f aca="false">SUM(D4:N4)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="P4" s="13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
         <v>117</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="10" t="n">
         <f aca="false">SUM(D5:N5)</f>
         <v>9</v>
       </c>
-      <c r="D5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12" t="n">
+      <c r="D5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="I5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="12" t="n">
+      <c r="I5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="12" t="n">
+      <c r="M5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="11" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11" t="n">
+    <row r="6" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
+        <v>159</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="n">
         <f aca="false">SUM(D6:N6)</f>
+        <v>9</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <v>230</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <f aca="false">SUM(D7:N7)</f>
+        <v>10.5</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
+        <v>263</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <f aca="false">SUM(D8:N8)</f>
+        <v>8</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="P6" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11" t="n">
-        <f aca="false">SUM(D7:N7)</f>
+      <c r="M8" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
+        <v>333</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <f aca="false">SUM(D9:N9)</f>
+        <v>6</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11" t="n">
-        <f aca="false">SUM(D8:N8)</f>
+      <c r="J9" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11" t="n">
-        <f aca="false">SUM(D9:N9)</f>
+      <c r="N9" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11" t="n">
+    </row>
+    <row r="10" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10" t="n">
         <f aca="false">SUM(D10:N10)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11" t="n">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10" t="n">
         <f aca="false">SUM(D11:N11)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="11" t="n">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="10" t="n">
         <f aca="false">SUM(D12:N12)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11" t="n">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10" t="n">
         <f aca="false">SUM(D13:N13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11" t="n">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10" t="n">
         <f aca="false">SUM(D14:N14)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="11" t="n">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="10" t="n">
         <f aca="false">SUM(D15:N15)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="11" t="n">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="10" t="n">
         <f aca="false">SUM(D16:N16)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="11" t="n">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10" t="n">
         <f aca="false">SUM(D17:N17)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="11" t="n">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="10" t="n">
         <f aca="false">SUM(D18:N18)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="11" t="n">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10" t="n">
         <f aca="false">SUM(D19:N19)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="11" t="n">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10" t="n">
         <f aca="false">SUM(D20:N20)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11" t="n">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10" t="n">
         <f aca="false">SUM(D21:N21)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="11" t="n">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="10" t="n">
         <f aca="false">SUM(D22:N22)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11" t="n">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="10" t="n">
         <f aca="false">SUM(D23:N23)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="11" t="n">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10" t="n">
         <f aca="false">SUM(D24:N24)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11" t="n">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10" t="n">
         <f aca="false">SUM(D25:N25)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="11" t="n">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10" t="n">
         <f aca="false">SUM(D26:N26)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11" t="n">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="10" t="n">
         <f aca="false">SUM(D27:N27)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11" t="n">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13"/>
+      <c r="C28" s="10" t="n">
         <f aca="false">SUM(D28:N28)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9"/>
-      <c r="C29" s="11" t="n">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13"/>
+      <c r="C29" s="10" t="n">
         <f aca="false">SUM(D29:N29)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="C30" s="11" t="n">
-        <f aca="false">SUM(D30:N30)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="16"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="16"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="16"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="15"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="15"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="15"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C30">
+  <conditionalFormatting sqref="C2:C29">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>6.5</formula>
     </cfRule>
@@ -3367,12 +3680,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="P36" activeCellId="0" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3441,1874 +3754,1962 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="100.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="17" t="n">
+      <c r="C2" s="16" t="n">
         <v>43520</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="15" t="n">
+      <c r="E2" s="14" t="n">
         <v>2013</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="R2" s="18"/>
+      <c r="R2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="17" t="n">
+      <c r="C3" s="16" t="n">
         <v>43530</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="15" t="n">
+      <c r="E3" s="14" t="n">
         <v>2013</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="R3" s="18"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="125.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="16" t="n">
         <v>43520</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="15" t="n">
+      <c r="E4" s="14" t="n">
         <v>2016</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="163.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="C5" s="16" t="n">
         <v>43520</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E5" s="14" t="n">
         <v>2016</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="14" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="100.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C6" s="16" t="n">
         <v>43521</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="E6" s="14" t="n">
         <v>2016</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="125.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="13" t="n">
         <v>21</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="17" t="n">
+      <c r="C7" s="16" t="n">
         <v>43521</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="14" t="n">
         <v>2016</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="14" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="175.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="13" t="n">
         <v>23</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="C8" s="16" t="n">
         <v>43522</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E8" s="14" t="n">
         <v>2018</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="14" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="138.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="n">
+      <c r="A9" s="14" t="n">
         <v>25</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="17" t="n">
+      <c r="C9" s="16" t="n">
         <v>43522</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="14" t="n">
         <v>2013</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="14" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="113" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="17" t="n">
+      <c r="C10" s="16" t="n">
         <v>43522</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="14" t="n">
         <v>2017</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="87.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+      <c r="A11" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="17" t="n">
+      <c r="C11" s="16" t="n">
         <v>43522</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E11" s="14" t="n">
         <v>2017</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="O11" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="87.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
+      <c r="A12" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="17" t="n">
+      <c r="C12" s="16" t="n">
         <v>43523</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="E12" s="15" t="n">
+      <c r="E12" s="14" t="n">
         <v>2017</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="O12" s="14" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
+      <c r="A13" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="17" t="n">
+      <c r="C13" s="16" t="n">
         <v>43523</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="14" t="n">
         <v>2013</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="14" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="11" t="n">
         <v>38</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="17" t="n">
+      <c r="C14" s="16" t="n">
         <v>43524</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="15" t="n">
+      <c r="E14" s="14" t="n">
         <v>2013</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="O14" s="14" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="138.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="13" t="n">
         <v>41</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="C15" s="16" t="n">
         <v>43524</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="E15" s="15" t="n">
+      <c r="E15" s="14" t="n">
         <v>2017</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="14" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="100.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="13" t="n">
         <v>43</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="16" t="n">
         <v>43524</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="E16" s="15" t="n">
+      <c r="E16" s="14" t="n">
         <v>2014</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="O16" s="14" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="100.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
+      <c r="A17" s="13" t="n">
         <v>45</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="17" t="n">
+      <c r="C17" s="16" t="n">
         <v>43524</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="E17" s="15" t="n">
+      <c r="E17" s="14" t="n">
         <v>2017</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="O17" s="15" t="s">
+      <c r="O17" s="14" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="62.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="13" t="n">
         <v>47</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C18" s="17" t="n">
+      <c r="C18" s="16" t="n">
         <v>43530</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="E18" s="15" t="n">
+      <c r="E18" s="14" t="n">
         <v>2015</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="M18" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="O18" s="15" t="s">
+      <c r="O18" s="14" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="62.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C19" s="17" t="n">
+      <c r="C19" s="16" t="n">
         <v>43531</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E19" s="15" t="n">
+      <c r="E19" s="14" t="n">
         <v>2018</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="O19" s="15" t="s">
+      <c r="O19" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="62.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="C20" s="17" t="n">
+      <c r="C20" s="16" t="n">
         <v>43525</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="E20" s="15" t="n">
+      <c r="E20" s="14" t="n">
         <v>2014</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="M20" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="O20" s="15" t="s">
+      <c r="O20" s="14" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="87.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C21" s="17" t="n">
+      <c r="C21" s="16" t="n">
         <v>43525</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E21" s="15" t="n">
+      <c r="E21" s="14" t="n">
         <v>2014</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="M21" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="N21" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="O21" s="15" t="s">
+      <c r="O21" s="14" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="n">
+      <c r="A22" s="11" t="n">
         <v>57</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C22" s="17" t="n">
+      <c r="C22" s="16" t="n">
         <v>43525</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="E22" s="15" t="n">
+      <c r="E22" s="14" t="n">
         <v>2014</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O22" s="14" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="13" t="n">
         <v>59</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="C23" s="17" t="n">
+      <c r="C23" s="16" t="n">
         <v>43525</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="E23" s="15" t="n">
+      <c r="E23" s="14" t="n">
         <v>2014</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="M23" s="15" t="s">
+      <c r="M23" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="O23" s="15" t="s">
+      <c r="O23" s="14" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="87.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="13" t="n">
         <v>60</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C24" s="17" t="n">
+      <c r="C24" s="16" t="n">
         <v>43526</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="E24" s="15" t="n">
+      <c r="E24" s="14" t="n">
         <v>2017</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="M24" s="15" t="s">
+      <c r="M24" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="N24" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="O24" s="15" t="s">
+      <c r="O24" s="14" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="13" t="n">
         <v>61</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="C25" s="17" t="n">
+      <c r="C25" s="16" t="n">
         <v>43526</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="E25" s="15" t="n">
+      <c r="E25" s="14" t="n">
         <v>2017</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="L25" s="15" t="s">
+      <c r="L25" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="M25" s="15" t="s">
+      <c r="M25" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="O25" s="15" t="s">
+      <c r="O25" s="14" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="87.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="13" t="n">
         <v>67</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="C26" s="17" t="n">
+      <c r="C26" s="16" t="n">
         <v>43527</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="E26" s="15" t="n">
+      <c r="E26" s="14" t="n">
         <v>2017</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J26" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="K26" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="L26" s="15" t="s">
+      <c r="L26" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="O26" s="15" t="s">
+      <c r="O26" s="14" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="113" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="n">
+      <c r="A27" s="11" t="n">
         <v>69</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="C27" s="17" t="n">
+      <c r="C27" s="16" t="n">
         <v>43527</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="E27" s="15" t="n">
+      <c r="E27" s="14" t="n">
         <v>2017</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="M27" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="N27" s="12" t="s">
+      <c r="N27" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="O27" s="12" t="s">
+      <c r="O27" s="11" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="n">
+      <c r="A28" s="11" t="n">
         <v>70</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="C28" s="17" t="n">
+      <c r="C28" s="16" t="n">
         <v>43529</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="E28" s="15" t="n">
+      <c r="E28" s="14" t="n">
         <v>2018</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="M28" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="N28" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="O28" s="12" t="s">
+      <c r="O28" s="11" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="n">
+      <c r="A29" s="11" t="n">
         <v>72</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="C29" s="17" t="n">
+      <c r="C29" s="16" t="n">
         <v>43528</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="E29" s="15" t="n">
+      <c r="E29" s="14" t="n">
         <v>2013</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="N29" s="12" t="s">
+      <c r="N29" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="O29" s="12" t="s">
+      <c r="O29" s="11" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="87.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="n">
+      <c r="A30" s="11" t="n">
         <v>73</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="C30" s="17" t="n">
+      <c r="C30" s="16" t="n">
         <v>43528</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="E30" s="15" t="n">
+      <c r="E30" s="14" t="n">
         <v>2017</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="M30" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="N30" s="12" t="s">
+      <c r="N30" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="O30" s="12" t="s">
+      <c r="O30" s="11" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
+      <c r="A31" s="11" t="n">
         <v>75</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C31" s="17" t="n">
+      <c r="C31" s="16" t="n">
         <v>43531</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="E31" s="15" t="n">
+      <c r="E31" s="14" t="n">
         <v>2016</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="M31" s="12" t="s">
+      <c r="M31" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="N31" s="12" t="s">
+      <c r="N31" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="O31" s="12" t="s">
+      <c r="O31" s="11" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="n">
+      <c r="A32" s="11" t="n">
         <v>82</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="C32" s="17" t="n">
+      <c r="C32" s="16" t="n">
         <v>43528</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="E32" s="15" t="n">
+      <c r="E32" s="14" t="n">
         <v>2016</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K32" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="M32" s="12" t="s">
+      <c r="M32" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="N32" s="12" t="s">
+      <c r="N32" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="O32" s="12" t="s">
+      <c r="O32" s="11" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="87.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="n">
+      <c r="A33" s="11" t="n">
         <v>83</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="C33" s="17" t="n">
+      <c r="C33" s="16" t="n">
         <v>43528</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="E33" s="15" t="n">
+      <c r="E33" s="14" t="n">
         <v>2013</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="M33" s="12" t="s">
+      <c r="M33" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="N33" s="12" t="s">
+      <c r="N33" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="O33" s="12" t="s">
+      <c r="O33" s="11" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="n">
+      <c r="A34" s="13" t="n">
         <v>89</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="17" t="n">
+      <c r="C34" s="16" t="n">
         <v>43560</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="E34" s="15" t="n">
+      <c r="E34" s="14" t="n">
         <v>2018</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="K34" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="L34" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="M34" s="12" t="s">
+      <c r="M34" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="N34" s="12" t="s">
+      <c r="N34" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="O34" s="12" t="s">
+      <c r="O34" s="11" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="n">
+    <row r="35" customFormat="false" ht="118.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="19" t="n">
         <v>102</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-    </row>
-    <row r="36" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="n">
+      <c r="C35" s="20" t="n">
+        <v>43566</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="E35" s="14" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="19" t="n">
         <v>106</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
+      <c r="C36" s="20" t="n">
+        <v>43566</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E36" s="14" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="62.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
+      <c r="A37" s="13" t="n">
         <v>117</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="17" t="n">
+      <c r="C37" s="16" t="n">
         <v>43562</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="E37" s="15" t="n">
+      <c r="D37" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="E37" s="14" t="n">
         <v>2015</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="G37" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="K37" s="12" t="s">
+      <c r="G37" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="K37" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="L37" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="M37" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="n">
-        <v>120</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="17" t="n">
-        <v>43562</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
+      <c r="L37" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="n">
+        <v>159</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="21" t="n">
+        <v>43565</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="E38" s="14" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="n">
+        <v>230</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="21" t="n">
+        <v>43565</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="E39" s="14" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="n">
+        <v>263</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="21" t="n">
+        <v>43565</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E40" s="14" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-    </row>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Análise e Extração Snowballing.xlsx
+++ b/Análise e Extração Snowballing.xlsx
@@ -1568,12 +1568,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="[$-416]D/M/YYYY"/>
     <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="168" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -1727,7 +1726,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1809,10 +1808,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3682,10 +3677,10 @@
   </sheetPr>
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="P36" activeCellId="0" sqref="P36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5454,7 +5449,7 @@
       <c r="B38" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="21" t="n">
+      <c r="C38" s="20" t="n">
         <v>43565</v>
       </c>
       <c r="D38" s="11" t="s">
@@ -5501,7 +5496,7 @@
       <c r="B39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="21" t="n">
+      <c r="C39" s="20" t="n">
         <v>43565</v>
       </c>
       <c r="D39" s="11" t="s">
@@ -5548,7 +5543,7 @@
       <c r="B40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="21" t="n">
+      <c r="C40" s="20" t="n">
         <v>43565</v>
       </c>
       <c r="D40" s="11" t="s">
